--- a/similarities/split_global/harmonic_similarity_timestamps_268.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_268.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min'], ['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>['C:maj/G', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['Ab:maj', 'Bb:7', 'Eb:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000'), ('0:00:38.900000', '0:00:44.360000')]</t>
+          <t>('0:01:02.860000', '0:01:07.200000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000'), ('0:02:11.200000', '0:02:16.340000'), ('0:00:37.840000', '0:00:42.820000')]</t>
+          <t>('0:00:40.918000', '0:00:45.018000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=62.86</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=40.918</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_271</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['E', 'E/5', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['C', 'C/7', 'C/6']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000'), ('0:00:24.760000', '0:00:32.420000')]</t>
+          <t>('0:01:01.881201', '0:01:05.886643')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000'), ('0:00:23.980000', '0:00:31.920000')]</t>
+          <t>('0:01:09.901000', '0:01:17.903000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=61.881201</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=69.901</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['G:7', 'C', 'F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:7', 'F:maj', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000'), ('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:35.997000', '0:00:42.131000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000'), ('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:16.020000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=16.02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:min', 'Db', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:16.080000')]</t>
+          <t>('0:01:03.359000', '0:01:09.226000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:02:49.840000', '0:02:52.420000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=63.359</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=169.84</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.340000', '0:00:09.640000')]</t>
+          <t>('0:00:44', '0:01:01.060000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=7.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:17.720000', '0:01:28'), ('0:00:46.520000', '0:00:48.940000'), ('0:01:39.600000', '0:01:51.620000')]</t>
+          <t>('0:00:15.880000', '0:00:17.370000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000'), ('0:00:26.960000', '0:00:33.500000'), ('0:00:10.160000', '0:00:13.840000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:09.140000', '0:00:16.920000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:02:18.020000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:01:45', '0:01:48.540000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'D']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:11.260000', '0:00:14.360000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:32.032000', '0:00:39.805000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=32.032']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:04.920000', '0:01:07.900000')]</t>
+          <t>('0:00:39.180000', '0:00:53.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000'), ('0:00:28.300000', '0:00:38.340000')]</t>
+          <t>('0:03:56.400000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=28.3']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:17.900000', '0:00:24.560000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=17.9']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
+          <t>('0:02:06.040000', '0:02:07.180000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:03.294000', '0:00:07.605000')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=126.04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=3.294']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'C:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.159000', '0:00:16.555000')]</t>
+          <t>('0:02:03.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:05.800000', '0:00:11.920000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=13.159']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=5.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:06.126439', '0:00:09.980952')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:12.971000', '0:00:23.861000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=6.126439']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
